--- a/Artea/data/agility/topic_insights.xlsx
+++ b/Artea/data/agility/topic_insights.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Projects\Artea\One Shot Analysis\dashboard\data\agility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106094A6-E951-4FD2-99EB-CE6DB7C90DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C3A7E8-9D5F-4CDB-A187-9CBB437FE0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Insights" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -43,9 +56,6 @@
     <t>Šiaulių bank’s chief economist comments on U.S. tariff policy, stressing risks from unpredictable presidential decisions.</t>
   </si>
   <si>
-    <t>Artea (formerly Šiaulių bankas) forecasts GDP growth of 2.7% in 2025, slowing further to 2.5% in 2026.</t>
-  </si>
-  <si>
     <t>Brand Development and Corporate Identity</t>
   </si>
   <si>
@@ -85,15 +95,9 @@
     <t>Financial Literacy and Management</t>
   </si>
   <si>
-    <t>Citadele posted €21.5m net profit in Q1, down 16% year-on-year, with revenues falling 7.6%.</t>
-  </si>
-  <si>
     <t>A Citadele survey shows Lithuanians most often save for specific goals or set aside cash at home.</t>
   </si>
   <si>
-    <t>Citadele reports annual revenues rose 0.4% to €234.8m, with solidarity tax payments jumping nearly 11-fold.</t>
-  </si>
-  <si>
     <t>Economic Growth and Development in the Baltic States</t>
   </si>
   <si>
@@ -163,12 +167,6 @@
     <t>Organizational Changes and Leadership in Financial Institutions</t>
   </si>
   <si>
-    <t>A fraudster posing as an SEB employee defrauded a Šiauliai resident of €14.2k; police launched an investigation.</t>
-  </si>
-  <si>
-    <t>SEB announced planned system maintenance on May 17, causing temporary service outages during the night.</t>
-  </si>
-  <si>
     <t>Swedbank</t>
   </si>
   <si>
@@ -194,6 +192,21 @@
   </si>
   <si>
     <t>Swedbank said the number of its retail investors in Lithuania grew nearly 70% in one year, reaching almost 100,000.</t>
+  </si>
+  <si>
+    <t>SEB predicts GDP growth of 3% in the next half year, with a risk of a slower second half a year due to US tariffs.</t>
+  </si>
+  <si>
+    <t>SEB's expansion to Latvia, opening a branch there which will have positive effects for its customers.</t>
+  </si>
+  <si>
+    <t>SEB announed to merge the 3 Baltic branches with a headquarter in Estonia and branches in Lithuania and Latvia.</t>
+  </si>
+  <si>
+    <t>Artea forecasts GDP growth of 2.7% in 2025, slowing further to 2.5% in 2026.</t>
+  </si>
+  <si>
+    <t>Citadele’s surge in refinancing—from 7% to 32% of mortgage applications—shows that new rules are prompting consumers to review loans more actively, strengthening financial literacy but straining loan processing.</t>
   </si>
 </sst>
 </file>
@@ -558,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -603,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -611,13 +624,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -625,13 +638,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -639,13 +652,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -653,13 +666,13 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -667,122 +680,122 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
       </c>
       <c r="C11">
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>20</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -790,125 +803,125 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
         <v>28</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
         <v>32</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
         <v>36</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
         <v>39</v>
@@ -916,147 +929,147 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
         <v>40</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C33">
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>5</v>
@@ -1065,12 +1078,12 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B37" t="s">
         <v>5</v>
@@ -1079,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
